--- a/heloc_data_dictionary-2.xlsx
+++ b/heloc_data_dictionary-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spkbh\Documents\Machine Learning\Capstone - XAI\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishiraj\Desktop\Shivraj\capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C852DC-AA85-4585-9295-56DDA3304075}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205FFEFB-F50A-4942-9DCB-FD432D606E04}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
   <si>
     <t>Months Since Oldest Trade Open</t>
   </si>
@@ -374,6 +374,27 @@
   </si>
   <si>
     <t>Number of credit cards on a consumer credit bureau report carrying a balance that is at 75% of its limit or greater</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Continuous Numeric</t>
+  </si>
+  <si>
+    <t>Delinquent</t>
+  </si>
+  <si>
+    <t>Derogatory</t>
+  </si>
+  <si>
+    <t>Never Delinquent</t>
+  </si>
+  <si>
+    <t>Nominal Categorical</t>
   </si>
 </sst>
 </file>
@@ -489,7 +510,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -515,6 +536,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -804,20 +831,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.3125" customWidth="1"/>
-    <col min="2" max="2" width="42.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.375" customWidth="1"/>
+    <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.8125" customWidth="1"/>
-    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -830,17 +859,20 @@
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -851,14 +883,18 @@
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -871,19 +907,21 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>55</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>61</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -896,17 +934,20 @@
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>144</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H4" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
@@ -919,17 +960,20 @@
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H5" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -942,17 +986,20 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>84</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H6" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
@@ -965,17 +1012,20 @@
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H7" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>42</v>
       </c>
@@ -988,17 +1038,20 @@
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H8" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
@@ -1011,17 +1064,20 @@
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H9" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
@@ -1034,17 +1090,20 @@
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>83</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H10" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
@@ -1057,17 +1116,20 @@
       <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>-7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H11" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -1080,17 +1142,20 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H12" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
@@ -1103,17 +1168,20 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1126,14 +1194,18 @@
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>23</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
@@ -1146,17 +1218,20 @@
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H15" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1169,17 +1244,20 @@
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>43</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>67</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
@@ -1192,17 +1270,20 @@
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H17" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -1215,17 +1296,20 @@
       <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H18" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>47</v>
       </c>
@@ -1238,17 +1322,20 @@
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H19" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
@@ -1261,17 +1348,20 @@
       <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>33</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H20" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>22</v>
       </c>
@@ -1284,17 +1374,20 @@
       <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>-8</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>-8</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H21" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>48</v>
       </c>
@@ -1307,20 +1400,20 @@
       <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>8</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H22" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>49</v>
       </c>
@@ -1333,20 +1426,20 @@
       <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>-8</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H23" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -1359,17 +1452,20 @@
       <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>-8</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>26</v>
       </c>
@@ -1382,22 +1478,25 @@
       <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>69</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H25" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -1408,7 +1507,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -1419,7 +1518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -1430,7 +1529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -1441,7 +1540,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -1452,41 +1551,41 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34">
         <f>SUM(B29:B33)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
     </row>
   </sheetData>
@@ -1497,68 +1596,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:B24"/>
+  <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.8125" style="9"/>
+    <col min="1" max="1" width="10.875" style="9"/>
+    <col min="2" max="2" width="21.875" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C4" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C5" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>64</v>
       </c>
@@ -1566,15 +1676,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C10" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
@@ -1582,20 +1695,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>1</v>
       </c>
@@ -1603,47 +1716,56 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C17" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C18" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>5</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>7</v>
       </c>
@@ -1651,15 +1773,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="C23" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>9</v>
       </c>
@@ -1668,6 +1793,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C18:C21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1677,22 +1806,22 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
